--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser EF EM MDN PA Q1'20-Q2'20 Plan Rev - 12-16.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser EF EM MDN PA Q1'20-Q2'20 Plan Rev - 12-16.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -241,6 +241,9 @@
     <t>1Q '20 EM Total</t>
   </si>
   <si>
+    <t>1Q '20 ADU</t>
+  </si>
+  <si>
     <t xml:space="preserve">2Q '20 MDN :90s </t>
   </si>
   <si>
@@ -274,6 +277,9 @@
     <t>2Q '20 EM Total</t>
   </si>
   <si>
+    <t>2Q '20 ADU</t>
+  </si>
+  <si>
     <t>:15 equiv., :30</t>
   </si>
   <si>
@@ -286,7 +292,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/11/20</t>
+    <t>Created 02/14/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1630,7 +1636,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P151"/>
+  <dimension ref="A2:P169"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1662,7 +1668,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/11/20</v>
+        <v>Created 02/14/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1919,7 +1925,7 @@
         <v>401.75824175824181</v>
       </c>
       <c r="P11" s="58">
-        <v>5085.714285714289</v>
+        <v>5085.7142857142862</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -2116,43 +2122,43 @@
         <v>58</v>
       </c>
       <c r="C18" s="63">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="D18" s="64">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="E18" s="64">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="F18" s="65">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="G18" s="63">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="H18" s="64">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="I18" s="64">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="J18" s="65">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="K18" s="63">
-        <v>0.010043956043956</v>
+        <v>0.010043956043956045</v>
       </c>
       <c r="L18" s="64">
-        <v>0.010043956043956</v>
+        <v>0.010043956043956045</v>
       </c>
       <c r="M18" s="64">
-        <v>0.010043956043956</v>
+        <v>0.010043956043956045</v>
       </c>
       <c r="N18" s="64">
-        <v>0.010043956043956</v>
+        <v>0.010043956043956045</v>
       </c>
       <c r="O18" s="65">
-        <v>0.010043956043956</v>
+        <v>0.010043956043956045</v>
       </c>
       <c r="P18" s="69" t="s">
         <v>38</v>
@@ -2212,46 +2218,46 @@
         <v>59</v>
       </c>
       <c r="C20" s="66">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="D20" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="E20" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="F20" s="58">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="G20" s="66">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="H20" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="I20" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="J20" s="58">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K20" s="66">
-        <v>401.758241758242</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="L20" s="36">
-        <v>401.758241758242</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="M20" s="36">
-        <v>401.758241758242</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="N20" s="36">
-        <v>401.758241758242</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="O20" s="58">
-        <v>401.758241758242</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="P20" s="58">
-        <v>5085.714285714289</v>
+        <v>5085.7142857142862</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -2583,7 +2589,7 @@
         <v>384.61538461538464</v>
       </c>
       <c r="P29" s="58">
-        <v>5000.0000000000036</v>
+        <v>5000.0000000000009</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -2780,43 +2786,43 @@
         <v>58</v>
       </c>
       <c r="C36" s="63">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="D36" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="E36" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="F36" s="65">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="G36" s="63">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="H36" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="I36" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="J36" s="65">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="K36" s="63">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="L36" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="M36" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="N36" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="O36" s="65">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="P36" s="69" t="s">
         <v>38</v>
@@ -2876,46 +2882,46 @@
         <v>59</v>
       </c>
       <c r="C38" s="66">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="D38" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="E38" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="F38" s="58">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="G38" s="66">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="H38" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="I38" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="J38" s="58">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K38" s="66">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="L38" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="M38" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="N38" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="O38" s="58">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="P38" s="58">
-        <v>5000.0000000000036</v>
+        <v>5000.0000000000009</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1">
@@ -3247,7 +3253,7 @@
         <v>1420.0000000000005</v>
       </c>
       <c r="P47" s="58">
-        <v>7100</v>
+        <v>7100.0000000000018</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
@@ -3468,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="K54" s="63">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="L54" s="64">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="M54" s="64">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="N54" s="64">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="O54" s="65">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="P54" s="69" t="s">
         <v>38</v>
@@ -3564,22 +3570,22 @@
         <v>0</v>
       </c>
       <c r="K56" s="66">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="L56" s="36">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="M56" s="36">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="N56" s="36">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="O56" s="58">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="P56" s="58">
-        <v>7100</v>
+        <v>7100.0000000000018</v>
       </c>
     </row>
     <row r="57" ht="24" customHeight="1">
@@ -3911,7 +3917,7 @@
         <v>1420.0000000000005</v>
       </c>
       <c r="P65" s="58">
-        <v>7100</v>
+        <v>7100.0000000000018</v>
       </c>
     </row>
     <row r="66" ht="24" customHeight="1">
@@ -4132,19 +4138,19 @@
         <v>0</v>
       </c>
       <c r="K72" s="63">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="L72" s="64">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="M72" s="64">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="N72" s="64">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="O72" s="65">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="P72" s="69" t="s">
         <v>38</v>
@@ -4228,22 +4234,22 @@
         <v>0</v>
       </c>
       <c r="K74" s="66">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="L74" s="36">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="M74" s="36">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="N74" s="36">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="O74" s="58">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="P74" s="58">
-        <v>7100</v>
+        <v>7100.0000000000018</v>
       </c>
     </row>
     <row r="75" ht="24" customHeight="1">
@@ -4368,19 +4374,19 @@
         <v>69</v>
       </c>
       <c r="C79" s="98" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D79" s="99"/>
       <c r="E79" s="99"/>
       <c r="F79" s="100"/>
       <c r="G79" s="99" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H79" s="99"/>
       <c r="I79" s="99"/>
       <c r="J79" s="100"/>
       <c r="K79" s="98" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="L79" s="99"/>
       <c r="M79" s="99"/>
@@ -4392,43 +4398,43 @@
       <c r="A80" s="60"/>
       <c r="B80" s="75"/>
       <c r="C80" s="56">
-        <v>43920</v>
+        <v>43829</v>
       </c>
       <c r="D80" s="56">
-        <v>43927</v>
+        <v>43836</v>
       </c>
       <c r="E80" s="56">
-        <v>43934</v>
+        <v>43843</v>
       </c>
       <c r="F80" s="57">
-        <v>43941</v>
+        <v>43850</v>
       </c>
       <c r="G80" s="56">
-        <v>43948</v>
+        <v>43857</v>
       </c>
       <c r="H80" s="56">
-        <v>43955</v>
+        <v>43864</v>
       </c>
       <c r="I80" s="56">
-        <v>43962</v>
+        <v>43871</v>
       </c>
       <c r="J80" s="57">
-        <v>43969</v>
+        <v>43878</v>
       </c>
       <c r="K80" s="56">
-        <v>43976</v>
+        <v>43885</v>
       </c>
       <c r="L80" s="56">
-        <v>43983</v>
+        <v>43892</v>
       </c>
       <c r="M80" s="56">
-        <v>43990</v>
+        <v>43899</v>
       </c>
       <c r="N80" s="56">
-        <v>43997</v>
+        <v>43906</v>
       </c>
       <c r="O80" s="56">
-        <v>44004</v>
+        <v>43913</v>
       </c>
       <c r="P80" s="68" t="s">
         <v>37</v>
@@ -4439,45 +4445,19 @@
       <c r="B81" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="63">
-        <v>0.010043956043956045</v>
-      </c>
-      <c r="D81" s="64">
-        <v>0.010043956043956045</v>
-      </c>
-      <c r="E81" s="64">
-        <v>0.0096153846153846159</v>
-      </c>
-      <c r="F81" s="65">
-        <v>0.0096153846153846159</v>
-      </c>
-      <c r="G81" s="63">
-        <v>0.0096153846153846159</v>
-      </c>
-      <c r="H81" s="64">
-        <v>0.0096153846153846159</v>
-      </c>
-      <c r="I81" s="64">
-        <v>0.0096153846153846159</v>
-      </c>
-      <c r="J81" s="65">
-        <v>0.0096153846153846159</v>
-      </c>
-      <c r="K81" s="63">
-        <v>0.0096153846153846159</v>
-      </c>
-      <c r="L81" s="64">
-        <v>0.0096153846153846159</v>
-      </c>
-      <c r="M81" s="64">
-        <v>0.0096153846153846159</v>
-      </c>
-      <c r="N81" s="64">
-        <v>0.0096153846153846159</v>
-      </c>
-      <c r="O81" s="65">
-        <v>0.0096153846153846159</v>
-      </c>
+      <c r="C81" s="63"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="63"/>
+      <c r="L81" s="64"/>
+      <c r="M81" s="64"/>
+      <c r="N81" s="64"/>
+      <c r="O81" s="65"/>
       <c r="P81" s="69" t="s">
         <v>38</v>
       </c>
@@ -4487,191 +4467,79 @@
       <c r="B82" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="67">
-        <v>0</v>
-      </c>
-      <c r="D82" s="37">
-        <v>0</v>
-      </c>
-      <c r="E82" s="37">
-        <v>0</v>
-      </c>
-      <c r="F82" s="59">
-        <v>0</v>
-      </c>
-      <c r="G82" s="67">
-        <v>0</v>
-      </c>
-      <c r="H82" s="37">
-        <v>0</v>
-      </c>
-      <c r="I82" s="37">
-        <v>0</v>
-      </c>
-      <c r="J82" s="59">
-        <v>0</v>
-      </c>
-      <c r="K82" s="67">
-        <v>0</v>
-      </c>
-      <c r="L82" s="37">
-        <v>0</v>
-      </c>
-      <c r="M82" s="37">
-        <v>0</v>
-      </c>
-      <c r="N82" s="37">
-        <v>0</v>
-      </c>
-      <c r="O82" s="59">
-        <v>0</v>
-      </c>
-      <c r="P82" s="59">
-        <v>0</v>
-      </c>
+      <c r="C82" s="67"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="59"/>
+      <c r="P82" s="59"/>
     </row>
     <row r="83" ht="24" customHeight="1">
       <c r="A83" s="25"/>
       <c r="B83" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C83" s="66">
-        <v>401.75824175824181</v>
-      </c>
-      <c r="D83" s="36">
-        <v>401.75824175824181</v>
-      </c>
-      <c r="E83" s="36">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="F83" s="58">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="G83" s="66">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="H83" s="36">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="I83" s="36">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="J83" s="58">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="K83" s="66">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="L83" s="36">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="M83" s="36">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="N83" s="36">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="O83" s="58">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="P83" s="58">
-        <v>5034.2857142857174</v>
-      </c>
+      <c r="C83" s="66"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="58"/>
+      <c r="P83" s="58"/>
     </row>
     <row r="84" ht="24" customHeight="1">
       <c r="A84" s="25"/>
       <c r="B84" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C84" s="73">
-        <v>24.999999999999943</v>
-      </c>
-      <c r="D84" s="38">
-        <v>24.999999999999943</v>
-      </c>
-      <c r="E84" s="38">
-        <v>24.999999999999936</v>
-      </c>
-      <c r="F84" s="74">
-        <v>24.999999999999936</v>
-      </c>
-      <c r="G84" s="73">
-        <v>24.999999999999936</v>
-      </c>
-      <c r="H84" s="38">
-        <v>24.999999999999936</v>
-      </c>
-      <c r="I84" s="38">
-        <v>24.999999999999936</v>
-      </c>
-      <c r="J84" s="74">
-        <v>24.999999999999936</v>
-      </c>
-      <c r="K84" s="73">
-        <v>24.999999999999936</v>
-      </c>
-      <c r="L84" s="38">
-        <v>24.999999999999936</v>
-      </c>
-      <c r="M84" s="38">
-        <v>24.999999999999936</v>
-      </c>
-      <c r="N84" s="38">
-        <v>24.999999999999936</v>
-      </c>
-      <c r="O84" s="74">
-        <v>24.999999999999936</v>
-      </c>
-      <c r="P84" s="74">
-        <v>24.999999999999932</v>
-      </c>
+      <c r="C84" s="73"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="73"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="74"/>
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="B85" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="70">
-        <v>10043.956043956028</v>
-      </c>
-      <c r="D85" s="71">
-        <v>10043.956043956028</v>
-      </c>
-      <c r="E85" s="71">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="F85" s="72">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="G85" s="70">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="H85" s="71">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="I85" s="71">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="J85" s="72">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="K85" s="70">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="L85" s="71">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="M85" s="71">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="N85" s="71">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="O85" s="72">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="P85" s="72">
-        <v>125857.14285714265</v>
-      </c>
+      <c r="C85" s="70"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="71"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="70"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="71"/>
+      <c r="O85" s="72"/>
+      <c r="P85" s="72"/>
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="B86" s="91" t="s">
@@ -4690,29 +4558,27 @@
       <c r="M86" s="94"/>
       <c r="N86" s="94"/>
       <c r="O86" s="95"/>
-      <c r="P86" s="92">
-        <v>0</v>
-      </c>
+      <c r="P86" s="92"/>
     </row>
     <row r="88">
       <c r="A88" s="60"/>
       <c r="B88" s="53" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C88" s="98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D88" s="99"/>
       <c r="E88" s="99"/>
       <c r="F88" s="100"/>
       <c r="G88" s="99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H88" s="99"/>
       <c r="I88" s="99"/>
       <c r="J88" s="100"/>
       <c r="K88" s="98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L88" s="99"/>
       <c r="M88" s="99"/>
@@ -4772,43 +4638,43 @@
         <v>58</v>
       </c>
       <c r="C90" s="63">
-        <v>0.010043956043956</v>
+        <v>0.010043956043956045</v>
       </c>
       <c r="D90" s="64">
-        <v>0.010043956043956</v>
+        <v>0.010043956043956045</v>
       </c>
       <c r="E90" s="64">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="F90" s="65">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="G90" s="63">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="H90" s="64">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="I90" s="64">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="J90" s="65">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="K90" s="63">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="L90" s="64">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="M90" s="64">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="N90" s="64">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="O90" s="65">
-        <v>0.00961538461538462</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="P90" s="69" t="s">
         <v>38</v>
@@ -4868,46 +4734,46 @@
         <v>59</v>
       </c>
       <c r="C92" s="66">
-        <v>401.758241758242</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="D92" s="36">
-        <v>401.758241758242</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="E92" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="F92" s="58">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="G92" s="66">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="H92" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="I92" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="J92" s="58">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K92" s="66">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="L92" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="M92" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="N92" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="O92" s="58">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="P92" s="58">
-        <v>5034.2857142857174</v>
+        <v>5034.2857142857156</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1">
@@ -5032,19 +4898,19 @@
         <v>74</v>
       </c>
       <c r="C97" s="98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D97" s="99"/>
       <c r="E97" s="99"/>
       <c r="F97" s="100"/>
       <c r="G97" s="99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H97" s="99"/>
       <c r="I97" s="99"/>
       <c r="J97" s="100"/>
       <c r="K97" s="98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L97" s="99"/>
       <c r="M97" s="99"/>
@@ -5104,43 +4970,43 @@
         <v>58</v>
       </c>
       <c r="C99" s="63">
-        <v>0.019230769230769232</v>
+        <v>0.010043956043956045</v>
       </c>
       <c r="D99" s="64">
-        <v>0.019230769230769232</v>
+        <v>0.010043956043956045</v>
       </c>
       <c r="E99" s="64">
-        <v>0.019230769230769232</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="F99" s="65">
-        <v>0.019230769230769232</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="G99" s="63">
-        <v>0.019230769230769232</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="H99" s="64">
-        <v>0.019230769230769232</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="I99" s="64">
-        <v>0.019230769230769232</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="J99" s="65">
-        <v>0.019230769230769232</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="K99" s="63">
-        <v>0.019230769230769232</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="L99" s="64">
-        <v>0.019230769230769232</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="M99" s="64">
-        <v>0.019230769230769232</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="N99" s="64">
-        <v>0.019230769230769232</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="O99" s="65">
-        <v>0.019230769230769232</v>
+        <v>0.0096153846153846159</v>
       </c>
       <c r="P99" s="69" t="s">
         <v>38</v>
@@ -5200,10 +5066,10 @@
         <v>59</v>
       </c>
       <c r="C101" s="66">
-        <v>384.61538461538464</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="D101" s="36">
-        <v>384.61538461538464</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="E101" s="36">
         <v>384.61538461538464</v>
@@ -5239,7 +5105,7 @@
         <v>384.61538461538464</v>
       </c>
       <c r="P101" s="58">
-        <v>5000.0000000000036</v>
+        <v>5034.2857142857156</v>
       </c>
     </row>
     <row r="102" ht="24" customHeight="1">
@@ -5248,10 +5114,10 @@
         <v>30</v>
       </c>
       <c r="C102" s="73">
-        <v>24.999999999999936</v>
+        <v>24.999999999999943</v>
       </c>
       <c r="D102" s="38">
-        <v>24.999999999999936</v>
+        <v>24.999999999999943</v>
       </c>
       <c r="E102" s="38">
         <v>24.999999999999936</v>
@@ -5287,7 +5153,7 @@
         <v>24.999999999999936</v>
       </c>
       <c r="P102" s="74">
-        <v>24.999999999999957</v>
+        <v>24.999999999999932</v>
       </c>
     </row>
     <row r="103" ht="24" customHeight="1">
@@ -5295,10 +5161,10 @@
         <v>60</v>
       </c>
       <c r="C103" s="70">
-        <v>9615.3846153846</v>
+        <v>10043.956043956028</v>
       </c>
       <c r="D103" s="71">
-        <v>9615.3846153846</v>
+        <v>10043.956043956028</v>
       </c>
       <c r="E103" s="71">
         <v>9615.3846153846</v>
@@ -5334,7 +5200,7 @@
         <v>9615.3846153846</v>
       </c>
       <c r="P103" s="72">
-        <v>124999.9999999998</v>
+        <v>125857.14285714265</v>
       </c>
     </row>
     <row r="104" ht="30" customHeight="1">
@@ -5364,19 +5230,19 @@
         <v>75</v>
       </c>
       <c r="C106" s="98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D106" s="99"/>
       <c r="E106" s="99"/>
       <c r="F106" s="100"/>
       <c r="G106" s="99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H106" s="99"/>
       <c r="I106" s="99"/>
       <c r="J106" s="100"/>
       <c r="K106" s="98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L106" s="99"/>
       <c r="M106" s="99"/>
@@ -5436,43 +5302,43 @@
         <v>58</v>
       </c>
       <c r="C108" s="63">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="D108" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="E108" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="F108" s="65">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="G108" s="63">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="H108" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="I108" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="J108" s="65">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="K108" s="63">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="L108" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="M108" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="N108" s="64">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="O108" s="65">
-        <v>0.0192307692307692</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="P108" s="69" t="s">
         <v>38</v>
@@ -5532,46 +5398,46 @@
         <v>59</v>
       </c>
       <c r="C110" s="66">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="D110" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="E110" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="F110" s="58">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="G110" s="66">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="H110" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="I110" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="J110" s="58">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K110" s="66">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="L110" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="M110" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="N110" s="36">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="O110" s="58">
-        <v>384.615384615385</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="P110" s="58">
-        <v>5000.0000000000036</v>
+        <v>5000.0000000000009</v>
       </c>
     </row>
     <row r="111" ht="24" customHeight="1">
@@ -5696,19 +5562,19 @@
         <v>76</v>
       </c>
       <c r="C115" s="98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D115" s="99"/>
       <c r="E115" s="99"/>
       <c r="F115" s="100"/>
       <c r="G115" s="99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H115" s="99"/>
       <c r="I115" s="99"/>
       <c r="J115" s="100"/>
       <c r="K115" s="98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L115" s="99"/>
       <c r="M115" s="99"/>
@@ -5768,43 +5634,43 @@
         <v>58</v>
       </c>
       <c r="C117" s="63">
-        <v>0.071000000000000021</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="D117" s="64">
-        <v>0.071000000000000021</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="E117" s="64">
-        <v>0</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="F117" s="65">
-        <v>0</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="G117" s="63">
-        <v>0</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="H117" s="64">
-        <v>0</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="I117" s="64">
-        <v>0</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="J117" s="65">
-        <v>0</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="K117" s="63">
-        <v>0</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="L117" s="64">
-        <v>0</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="M117" s="64">
-        <v>0</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="N117" s="64">
-        <v>0</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="O117" s="65">
-        <v>0</v>
+        <v>0.019230769230769232</v>
       </c>
       <c r="P117" s="69" t="s">
         <v>38</v>
@@ -5864,46 +5730,46 @@
         <v>59</v>
       </c>
       <c r="C119" s="66">
-        <v>1420.0000000000005</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="D119" s="36">
-        <v>1420.0000000000005</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="E119" s="36">
-        <v>0</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="F119" s="58">
-        <v>0</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="G119" s="66">
-        <v>0</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="H119" s="36">
-        <v>0</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="I119" s="36">
-        <v>0</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="J119" s="58">
-        <v>0</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K119" s="66">
-        <v>0</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="L119" s="36">
-        <v>0</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="M119" s="36">
-        <v>0</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="N119" s="36">
-        <v>0</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="O119" s="58">
-        <v>0</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="P119" s="58">
-        <v>2840</v>
+        <v>5000.0000000000009</v>
       </c>
     </row>
     <row r="120" ht="24" customHeight="1">
@@ -5912,46 +5778,46 @@
         <v>30</v>
       </c>
       <c r="C120" s="73">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="D120" s="38">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="E120" s="38">
-        <v>0</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="F120" s="74">
-        <v>0</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="G120" s="73">
-        <v>0</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="H120" s="38">
-        <v>0</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="I120" s="38">
-        <v>0</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="J120" s="74">
-        <v>0</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="K120" s="73">
-        <v>0</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="L120" s="38">
-        <v>0</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="M120" s="38">
-        <v>0</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="N120" s="38">
-        <v>0</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="O120" s="74">
-        <v>0</v>
+        <v>24.999999999999936</v>
       </c>
       <c r="P120" s="74">
-        <v>25</v>
+        <v>24.999999999999957</v>
       </c>
     </row>
     <row r="121" ht="24" customHeight="1">
@@ -5959,46 +5825,46 @@
         <v>60</v>
       </c>
       <c r="C121" s="70">
-        <v>35500</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="D121" s="71">
-        <v>35500</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="E121" s="71">
-        <v>0</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="F121" s="72">
-        <v>0</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="G121" s="70">
-        <v>0</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="H121" s="71">
-        <v>0</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I121" s="71">
-        <v>0</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="J121" s="72">
-        <v>0</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="K121" s="70">
-        <v>0</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="L121" s="71">
-        <v>0</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="M121" s="71">
-        <v>0</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="N121" s="71">
-        <v>0</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="O121" s="72">
-        <v>0</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="P121" s="72">
-        <v>71000</v>
+        <v>124999.9999999998</v>
       </c>
     </row>
     <row r="122" ht="30" customHeight="1">
@@ -6028,19 +5894,19 @@
         <v>77</v>
       </c>
       <c r="C124" s="98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D124" s="99"/>
       <c r="E124" s="99"/>
       <c r="F124" s="100"/>
       <c r="G124" s="99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H124" s="99"/>
       <c r="I124" s="99"/>
       <c r="J124" s="100"/>
       <c r="K124" s="98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L124" s="99"/>
       <c r="M124" s="99"/>
@@ -6100,10 +5966,10 @@
         <v>58</v>
       </c>
       <c r="C126" s="63">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="D126" s="64">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="E126" s="64">
         <v>0</v>
@@ -6196,10 +6062,10 @@
         <v>59</v>
       </c>
       <c r="C128" s="66">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="D128" s="36">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="E128" s="36">
         <v>0</v>
@@ -6235,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="P128" s="58">
-        <v>2840</v>
+        <v>2840.0000000000009</v>
       </c>
     </row>
     <row r="129" ht="24" customHeight="1">
@@ -6360,19 +6226,19 @@
         <v>78</v>
       </c>
       <c r="C133" s="98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D133" s="99"/>
       <c r="E133" s="99"/>
       <c r="F133" s="100"/>
       <c r="G133" s="99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H133" s="99"/>
       <c r="I133" s="99"/>
       <c r="J133" s="100"/>
       <c r="K133" s="98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L133" s="99"/>
       <c r="M133" s="99"/>
@@ -6567,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="58">
-        <v>2840</v>
+        <v>2840.0000000000009</v>
       </c>
     </row>
     <row r="138" ht="24" customHeight="1">
@@ -6692,19 +6558,19 @@
         <v>79</v>
       </c>
       <c r="C142" s="98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D142" s="99"/>
       <c r="E142" s="99"/>
       <c r="F142" s="100"/>
       <c r="G142" s="99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H142" s="99"/>
       <c r="I142" s="99"/>
       <c r="J142" s="100"/>
       <c r="K142" s="98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L142" s="99"/>
       <c r="M142" s="99"/>
@@ -6764,10 +6630,10 @@
         <v>58</v>
       </c>
       <c r="C144" s="63">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="D144" s="64">
-        <v>0.071</v>
+        <v>0.071000000000000021</v>
       </c>
       <c r="E144" s="64">
         <v>0</v>
@@ -6860,10 +6726,10 @@
         <v>59</v>
       </c>
       <c r="C146" s="66">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="D146" s="36">
-        <v>1420</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="E146" s="36">
         <v>0</v>
@@ -6899,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="58">
-        <v>2840</v>
+        <v>2840.0000000000009</v>
       </c>
     </row>
     <row r="147" ht="24" customHeight="1">
@@ -7018,8 +6884,532 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="24" customHeight="1">
-      <c r="P151" s="60"/>
+    <row r="151">
+      <c r="A151" s="60"/>
+      <c r="B151" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C151" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D151" s="99"/>
+      <c r="E151" s="99"/>
+      <c r="F151" s="100"/>
+      <c r="G151" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H151" s="99"/>
+      <c r="I151" s="99"/>
+      <c r="J151" s="100"/>
+      <c r="K151" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="L151" s="99"/>
+      <c r="M151" s="99"/>
+      <c r="N151" s="99"/>
+      <c r="O151" s="100"/>
+      <c r="P151" s="30"/>
+    </row>
+    <row r="152" ht="24" customHeight="1">
+      <c r="A152" s="60"/>
+      <c r="B152" s="75"/>
+      <c r="C152" s="56">
+        <v>43920</v>
+      </c>
+      <c r="D152" s="56">
+        <v>43927</v>
+      </c>
+      <c r="E152" s="56">
+        <v>43934</v>
+      </c>
+      <c r="F152" s="57">
+        <v>43941</v>
+      </c>
+      <c r="G152" s="56">
+        <v>43948</v>
+      </c>
+      <c r="H152" s="56">
+        <v>43955</v>
+      </c>
+      <c r="I152" s="56">
+        <v>43962</v>
+      </c>
+      <c r="J152" s="57">
+        <v>43969</v>
+      </c>
+      <c r="K152" s="56">
+        <v>43976</v>
+      </c>
+      <c r="L152" s="56">
+        <v>43983</v>
+      </c>
+      <c r="M152" s="56">
+        <v>43990</v>
+      </c>
+      <c r="N152" s="56">
+        <v>43997</v>
+      </c>
+      <c r="O152" s="56">
+        <v>44004</v>
+      </c>
+      <c r="P152" s="68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" ht="24" customHeight="1">
+      <c r="A153" s="25"/>
+      <c r="B153" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C153" s="63">
+        <v>0.071000000000000021</v>
+      </c>
+      <c r="D153" s="64">
+        <v>0.071000000000000021</v>
+      </c>
+      <c r="E153" s="64">
+        <v>0</v>
+      </c>
+      <c r="F153" s="65">
+        <v>0</v>
+      </c>
+      <c r="G153" s="63">
+        <v>0</v>
+      </c>
+      <c r="H153" s="64">
+        <v>0</v>
+      </c>
+      <c r="I153" s="64">
+        <v>0</v>
+      </c>
+      <c r="J153" s="65">
+        <v>0</v>
+      </c>
+      <c r="K153" s="63">
+        <v>0</v>
+      </c>
+      <c r="L153" s="64">
+        <v>0</v>
+      </c>
+      <c r="M153" s="64">
+        <v>0</v>
+      </c>
+      <c r="N153" s="64">
+        <v>0</v>
+      </c>
+      <c r="O153" s="65">
+        <v>0</v>
+      </c>
+      <c r="P153" s="69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" ht="24" customHeight="1">
+      <c r="A154" s="25"/>
+      <c r="B154" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="67">
+        <v>0</v>
+      </c>
+      <c r="D154" s="37">
+        <v>0</v>
+      </c>
+      <c r="E154" s="37">
+        <v>0</v>
+      </c>
+      <c r="F154" s="59">
+        <v>0</v>
+      </c>
+      <c r="G154" s="67">
+        <v>0</v>
+      </c>
+      <c r="H154" s="37">
+        <v>0</v>
+      </c>
+      <c r="I154" s="37">
+        <v>0</v>
+      </c>
+      <c r="J154" s="59">
+        <v>0</v>
+      </c>
+      <c r="K154" s="67">
+        <v>0</v>
+      </c>
+      <c r="L154" s="37">
+        <v>0</v>
+      </c>
+      <c r="M154" s="37">
+        <v>0</v>
+      </c>
+      <c r="N154" s="37">
+        <v>0</v>
+      </c>
+      <c r="O154" s="59">
+        <v>0</v>
+      </c>
+      <c r="P154" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" ht="24" customHeight="1">
+      <c r="A155" s="25"/>
+      <c r="B155" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C155" s="66">
+        <v>1420.0000000000005</v>
+      </c>
+      <c r="D155" s="36">
+        <v>1420.0000000000005</v>
+      </c>
+      <c r="E155" s="36">
+        <v>0</v>
+      </c>
+      <c r="F155" s="58">
+        <v>0</v>
+      </c>
+      <c r="G155" s="66">
+        <v>0</v>
+      </c>
+      <c r="H155" s="36">
+        <v>0</v>
+      </c>
+      <c r="I155" s="36">
+        <v>0</v>
+      </c>
+      <c r="J155" s="58">
+        <v>0</v>
+      </c>
+      <c r="K155" s="66">
+        <v>0</v>
+      </c>
+      <c r="L155" s="36">
+        <v>0</v>
+      </c>
+      <c r="M155" s="36">
+        <v>0</v>
+      </c>
+      <c r="N155" s="36">
+        <v>0</v>
+      </c>
+      <c r="O155" s="58">
+        <v>0</v>
+      </c>
+      <c r="P155" s="58">
+        <v>2840.0000000000009</v>
+      </c>
+    </row>
+    <row r="156" ht="24" customHeight="1">
+      <c r="A156" s="25"/>
+      <c r="B156" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" s="73">
+        <v>25</v>
+      </c>
+      <c r="D156" s="38">
+        <v>25</v>
+      </c>
+      <c r="E156" s="38">
+        <v>0</v>
+      </c>
+      <c r="F156" s="74">
+        <v>0</v>
+      </c>
+      <c r="G156" s="73">
+        <v>0</v>
+      </c>
+      <c r="H156" s="38">
+        <v>0</v>
+      </c>
+      <c r="I156" s="38">
+        <v>0</v>
+      </c>
+      <c r="J156" s="74">
+        <v>0</v>
+      </c>
+      <c r="K156" s="73">
+        <v>0</v>
+      </c>
+      <c r="L156" s="38">
+        <v>0</v>
+      </c>
+      <c r="M156" s="38">
+        <v>0</v>
+      </c>
+      <c r="N156" s="38">
+        <v>0</v>
+      </c>
+      <c r="O156" s="74">
+        <v>0</v>
+      </c>
+      <c r="P156" s="74">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" ht="24" customHeight="1">
+      <c r="B157" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C157" s="70">
+        <v>35500</v>
+      </c>
+      <c r="D157" s="71">
+        <v>35500</v>
+      </c>
+      <c r="E157" s="71">
+        <v>0</v>
+      </c>
+      <c r="F157" s="72">
+        <v>0</v>
+      </c>
+      <c r="G157" s="70">
+        <v>0</v>
+      </c>
+      <c r="H157" s="71">
+        <v>0</v>
+      </c>
+      <c r="I157" s="71">
+        <v>0</v>
+      </c>
+      <c r="J157" s="72">
+        <v>0</v>
+      </c>
+      <c r="K157" s="70">
+        <v>0</v>
+      </c>
+      <c r="L157" s="71">
+        <v>0</v>
+      </c>
+      <c r="M157" s="71">
+        <v>0</v>
+      </c>
+      <c r="N157" s="71">
+        <v>0</v>
+      </c>
+      <c r="O157" s="72">
+        <v>0</v>
+      </c>
+      <c r="P157" s="72">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="158" ht="30" customHeight="1">
+      <c r="B158" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C158" s="93"/>
+      <c r="D158" s="94"/>
+      <c r="E158" s="94"/>
+      <c r="F158" s="94"/>
+      <c r="G158" s="93"/>
+      <c r="H158" s="94"/>
+      <c r="I158" s="94"/>
+      <c r="J158" s="95"/>
+      <c r="K158" s="93"/>
+      <c r="L158" s="94"/>
+      <c r="M158" s="94"/>
+      <c r="N158" s="94"/>
+      <c r="O158" s="95"/>
+      <c r="P158" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="60"/>
+      <c r="B160" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C160" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D160" s="99"/>
+      <c r="E160" s="99"/>
+      <c r="F160" s="100"/>
+      <c r="G160" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H160" s="99"/>
+      <c r="I160" s="99"/>
+      <c r="J160" s="100"/>
+      <c r="K160" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="L160" s="99"/>
+      <c r="M160" s="99"/>
+      <c r="N160" s="99"/>
+      <c r="O160" s="100"/>
+      <c r="P160" s="30"/>
+    </row>
+    <row r="161" ht="24" customHeight="1">
+      <c r="A161" s="60"/>
+      <c r="B161" s="75"/>
+      <c r="C161" s="56">
+        <v>43920</v>
+      </c>
+      <c r="D161" s="56">
+        <v>43927</v>
+      </c>
+      <c r="E161" s="56">
+        <v>43934</v>
+      </c>
+      <c r="F161" s="57">
+        <v>43941</v>
+      </c>
+      <c r="G161" s="56">
+        <v>43948</v>
+      </c>
+      <c r="H161" s="56">
+        <v>43955</v>
+      </c>
+      <c r="I161" s="56">
+        <v>43962</v>
+      </c>
+      <c r="J161" s="57">
+        <v>43969</v>
+      </c>
+      <c r="K161" s="56">
+        <v>43976</v>
+      </c>
+      <c r="L161" s="56">
+        <v>43983</v>
+      </c>
+      <c r="M161" s="56">
+        <v>43990</v>
+      </c>
+      <c r="N161" s="56">
+        <v>43997</v>
+      </c>
+      <c r="O161" s="56">
+        <v>44004</v>
+      </c>
+      <c r="P161" s="68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" ht="24" customHeight="1">
+      <c r="A162" s="25"/>
+      <c r="B162" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C162" s="63"/>
+      <c r="D162" s="64"/>
+      <c r="E162" s="64"/>
+      <c r="F162" s="65"/>
+      <c r="G162" s="63"/>
+      <c r="H162" s="64"/>
+      <c r="I162" s="64"/>
+      <c r="J162" s="65"/>
+      <c r="K162" s="63"/>
+      <c r="L162" s="64"/>
+      <c r="M162" s="64"/>
+      <c r="N162" s="64"/>
+      <c r="O162" s="65"/>
+      <c r="P162" s="69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" ht="24" customHeight="1">
+      <c r="A163" s="25"/>
+      <c r="B163" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" s="67"/>
+      <c r="D163" s="37"/>
+      <c r="E163" s="37"/>
+      <c r="F163" s="59"/>
+      <c r="G163" s="67"/>
+      <c r="H163" s="37"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="59"/>
+      <c r="K163" s="67"/>
+      <c r="L163" s="37"/>
+      <c r="M163" s="37"/>
+      <c r="N163" s="37"/>
+      <c r="O163" s="59"/>
+      <c r="P163" s="59"/>
+    </row>
+    <row r="164" ht="24" customHeight="1">
+      <c r="A164" s="25"/>
+      <c r="B164" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C164" s="66"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="58"/>
+      <c r="G164" s="66"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="58"/>
+      <c r="K164" s="66"/>
+      <c r="L164" s="36"/>
+      <c r="M164" s="36"/>
+      <c r="N164" s="36"/>
+      <c r="O164" s="58"/>
+      <c r="P164" s="58"/>
+    </row>
+    <row r="165" ht="24" customHeight="1">
+      <c r="A165" s="25"/>
+      <c r="B165" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" s="73"/>
+      <c r="D165" s="38"/>
+      <c r="E165" s="38"/>
+      <c r="F165" s="74"/>
+      <c r="G165" s="73"/>
+      <c r="H165" s="38"/>
+      <c r="I165" s="38"/>
+      <c r="J165" s="74"/>
+      <c r="K165" s="73"/>
+      <c r="L165" s="38"/>
+      <c r="M165" s="38"/>
+      <c r="N165" s="38"/>
+      <c r="O165" s="74"/>
+      <c r="P165" s="74"/>
+    </row>
+    <row r="166" ht="24" customHeight="1">
+      <c r="B166" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C166" s="70"/>
+      <c r="D166" s="71"/>
+      <c r="E166" s="71"/>
+      <c r="F166" s="72"/>
+      <c r="G166" s="70"/>
+      <c r="H166" s="71"/>
+      <c r="I166" s="71"/>
+      <c r="J166" s="72"/>
+      <c r="K166" s="70"/>
+      <c r="L166" s="71"/>
+      <c r="M166" s="71"/>
+      <c r="N166" s="71"/>
+      <c r="O166" s="72"/>
+      <c r="P166" s="72"/>
+    </row>
+    <row r="167" ht="30" customHeight="1">
+      <c r="B167" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C167" s="93"/>
+      <c r="D167" s="94"/>
+      <c r="E167" s="94"/>
+      <c r="F167" s="94"/>
+      <c r="G167" s="93"/>
+      <c r="H167" s="94"/>
+      <c r="I167" s="94"/>
+      <c r="J167" s="95"/>
+      <c r="K167" s="93"/>
+      <c r="L167" s="94"/>
+      <c r="M167" s="94"/>
+      <c r="N167" s="94"/>
+      <c r="O167" s="95"/>
+      <c r="P167" s="92"/>
+    </row>
+    <row r="169" ht="24" customHeight="1">
+      <c r="P169" s="60"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -7072,6 +7462,12 @@
     <mergeCell ref="C142:F142"/>
     <mergeCell ref="G142:J142"/>
     <mergeCell ref="K142:O142"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="G151:J151"/>
+    <mergeCell ref="K151:O151"/>
+    <mergeCell ref="C160:F160"/>
+    <mergeCell ref="G160:J160"/>
+    <mergeCell ref="K160:O160"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="0" priority="3">
@@ -7179,7 +7575,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -7212,7 +7608,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -7473,7 +7869,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -9735,10 +10131,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -9773,24 +10169,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="96" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="96"/>
       <c r="E5" s="96" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" s="96"/>
       <c r="G5" s="96"/>
       <c r="H5" s="96" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="96" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K5" s="96"/>
       <c r="L5" s="96" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M5" s="96"/>
       <c r="N5" s="76" t="s">
@@ -9822,7 +10218,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -9837,7 +10233,7 @@
       <c r="L7" s="99"/>
       <c r="M7" s="100"/>
       <c r="N7" s="98" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O7" s="99"/>
       <c r="P7" s="99"/>
@@ -9848,14 +10244,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -9908,14 +10304,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" s="83">
         <v>0</v>
@@ -9968,14 +10364,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="E10" s="83">
         <v>0</v>
@@ -10028,14 +10424,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11" s="83">
         <v>0</v>
@@ -10088,14 +10484,14 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" s="83">
         <v>0</v>
@@ -10150,7 +10546,7 @@
       <c r="B13" s="25"/>
       <c r="C13" s="39"/>
       <c r="D13" s="40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E13" s="51">
         <v>0</v>
@@ -10203,7 +10599,7 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="C15" s="53" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="7"/>
@@ -10218,7 +10614,7 @@
       <c r="L15" s="99"/>
       <c r="M15" s="100"/>
       <c r="N15" s="98" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O15" s="99"/>
       <c r="P15" s="99"/>
@@ -10229,14 +10625,14 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>23</v>
@@ -10289,14 +10685,14 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E17" s="83">
         <v>0</v>
@@ -10349,14 +10745,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="E18" s="83">
         <v>0</v>
@@ -10409,14 +10805,14 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
@@ -10469,14 +10865,14 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" s="83">
         <v>0</v>
@@ -10531,7 +10927,7 @@
       <c r="B21" s="25"/>
       <c r="C21" s="39"/>
       <c r="D21" s="40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E21" s="51">
         <v>0</v>
@@ -10599,7 +10995,7 @@
       <c r="L23" s="99"/>
       <c r="M23" s="100"/>
       <c r="N23" s="98" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O23" s="99"/>
       <c r="P23" s="99"/>
@@ -10610,14 +11006,14 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>23</v>
@@ -10670,14 +11066,14 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E25" s="83">
         <v>0</v>
@@ -10730,14 +11126,14 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="E26" s="83">
         <v>0</v>
@@ -10790,14 +11186,14 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E27" s="83">
         <v>0</v>
@@ -10850,14 +11246,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E28" s="83">
         <v>0</v>
@@ -10912,7 +11308,7 @@
       <c r="B29" s="25"/>
       <c r="C29" s="39"/>
       <c r="D29" s="40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E29" s="51">
         <v>0</v>
@@ -10970,7 +11366,7 @@
       <c r="D31" s="55"/>
       <c r="E31" s="81"/>
       <c r="F31" s="105" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G31" s="105"/>
       <c r="H31" s="105"/>
@@ -11012,7 +11408,7 @@
       </c>
       <c r="D33" s="55"/>
       <c r="F33" s="105" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G33" s="105"/>
       <c r="H33" s="105"/>
@@ -11055,7 +11451,7 @@
       <c r="D35" s="55"/>
       <c r="E35" s="81"/>
       <c r="F35" s="105" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G35" s="105"/>
       <c r="H35" s="105"/>
@@ -11137,7 +11533,7 @@
       </c>
       <c r="D39" s="55"/>
       <c r="F39" s="97" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G39" s="97"/>
       <c r="H39" s="97"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser EF EM MDN PA Q1'20-Q2'20 Plan Rev - 12-16.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser EF EM MDN PA Q1'20-Q2'20 Plan Rev - 12-16.xlsx
@@ -292,7 +292,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/14/20</t>
+    <t>Created 02/18/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -346,7 +346,7 @@
     <t>~80% Minimum TV HH Coverage</t>
   </si>
   <si>
-    <t>EF - 03:00pm - 06:00pm, EM - 06:00am - 09:00am, MDN - 11:00am - 01:00pm, PA - 06:00pm - 08:00pm</t>
+    <t>EF - M-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</t>
   </si>
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -364,7 +364,24 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genres exclude Documentary, Action/Adventure, Children (Plan ID 1850) include Documentary (Plan ID 1851)  | Program include BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850) exclude The Big Bang Theory (Plan ID 1851) </d:t>
+      <d:t xml:space="preserve">Genres exclude Documentary, Action/Adventure, Children (Plan ID 1850) | Program include BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> MDN: </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Genres include Documentary (Plan ID 1851) | Program exclude The Big Bang Theory (Plan ID 1851)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -1668,7 +1685,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/14/20</v>
+        <v>Created 02/18/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1694,7 +1711,7 @@
       </c>
       <c r="D5" s="96" t="str">
         <f>'PROPOSAL'!F33</f>
-        <v>EF - 03:00pm - 06:00pm, EM - 06:00am - 09:00am, MDN - 11:00am - 01:00pm, PA - 06:00pm - 08:00pm</v>
+        <v>EF - M-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
